--- a/irecodes-master/demand.xlsx
+++ b/irecodes-master/demand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>N0</t>
   </si>
@@ -25,12 +25,18 @@
     <t>N2</t>
   </si>
   <si>
+    <t>PWF2</t>
+  </si>
+  <si>
     <t>N3</t>
   </si>
   <si>
     <t>N4</t>
   </si>
   <si>
+    <t>PWF4</t>
+  </si>
+  <si>
     <t>N5</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>N16</t>
   </si>
   <si>
+    <t>PWF16</t>
+  </si>
+  <si>
     <t>N17</t>
   </si>
   <si>
@@ -76,16 +85,19 @@
     <t>N20</t>
   </si>
   <si>
-    <t>PWF2</t>
-  </si>
-  <si>
-    <t>PWF4</t>
-  </si>
-  <si>
-    <t>PWF16</t>
-  </si>
-  <si>
     <t>PWF20</t>
+  </si>
+  <si>
+    <t>RES2</t>
+  </si>
+  <si>
+    <t>RES4</t>
+  </si>
+  <si>
+    <t>RES16</t>
+  </si>
+  <si>
+    <t>RES20</t>
   </si>
 </sst>
 </file>
@@ -443,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +534,20 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -534,19 +558,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001990740740743316</v>
+        <v>0.001990740740743537</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.002314814814818084</v>
       </c>
       <c r="F2">
-        <v>0.002986111111114974</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002986111111115307</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0.002314814814818084</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -573,31 +597,43 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002986111111114974</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.002986111111115307</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-0.002314814814818084</v>
       </c>
       <c r="U2">
-        <v>0.000995370370371658</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-0.002286598180261393</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.002452296915202983</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-0.00258480891040661</v>
+        <v>0.0009953703703717686</v>
       </c>
       <c r="Y2">
-        <v>-0.001634629327473936</v>
+        <v>-0.002314814814818084</v>
+      </c>
+      <c r="Z2">
+        <v>7.523148049939227E-05</v>
+      </c>
+      <c r="AA2">
+        <v>7.523148080952613E-05</v>
+      </c>
+      <c r="AB2">
+        <v>7.523147937487512E-05</v>
+      </c>
+      <c r="AC2">
+        <v>7.523148524261891E-05</v>
       </c>
     </row>
   </sheetData>

--- a/irecodes-master/demand.xlsx
+++ b/irecodes-master/demand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>N0</t>
   </si>
@@ -25,7 +25,7 @@
     <t>N2</t>
   </si>
   <si>
-    <t>PWF2</t>
+    <t>PWFn2</t>
   </si>
   <si>
     <t>N3</t>
@@ -34,7 +34,7 @@
     <t>N4</t>
   </si>
   <si>
-    <t>PWF4</t>
+    <t>PWFn4</t>
   </si>
   <si>
     <t>N5</t>
@@ -70,7 +70,7 @@
     <t>N16</t>
   </si>
   <si>
-    <t>PWF16</t>
+    <t>PWFn16</t>
   </si>
   <si>
     <t>N17</t>
@@ -85,7 +85,88 @@
     <t>N20</t>
   </si>
   <si>
-    <t>PWF20</t>
+    <t>PWFn20</t>
+  </si>
+  <si>
+    <t>f0t1Leak</t>
+  </si>
+  <si>
+    <t>f0t7Leak</t>
+  </si>
+  <si>
+    <t>f1t8Leak</t>
+  </si>
+  <si>
+    <t>f1t2Leak</t>
+  </si>
+  <si>
+    <t>f2t9Leak</t>
+  </si>
+  <si>
+    <t>f2t3Leak</t>
+  </si>
+  <si>
+    <t>f3t4Leak</t>
+  </si>
+  <si>
+    <t>f4t11Leak</t>
+  </si>
+  <si>
+    <t>f4t5Leak</t>
+  </si>
+  <si>
+    <t>f5t6Leak</t>
+  </si>
+  <si>
+    <t>f5t12Leak</t>
+  </si>
+  <si>
+    <t>f6t13Leak</t>
+  </si>
+  <si>
+    <t>f7t8Leak</t>
+  </si>
+  <si>
+    <t>f7t14Leak</t>
+  </si>
+  <si>
+    <t>f8t9Leak</t>
+  </si>
+  <si>
+    <t>f9t16Leak</t>
+  </si>
+  <si>
+    <t>f11t18Leak</t>
+  </si>
+  <si>
+    <t>f11t12Leak</t>
+  </si>
+  <si>
+    <t>f12t13Leak</t>
+  </si>
+  <si>
+    <t>f12t19Leak</t>
+  </si>
+  <si>
+    <t>f13t20Leak</t>
+  </si>
+  <si>
+    <t>f14t15Leak</t>
+  </si>
+  <si>
+    <t>f15t16Leak</t>
+  </si>
+  <si>
+    <t>f16t17Leak</t>
+  </si>
+  <si>
+    <t>f17t18Leak</t>
+  </si>
+  <si>
+    <t>f18t19Leak</t>
+  </si>
+  <si>
+    <t>f19t20Leak</t>
   </si>
   <si>
     <t>RES2</t>
@@ -455,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:56">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +627,89 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:56">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -558,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001990740740743537</v>
+        <v>0.002368981481484757</v>
       </c>
       <c r="E2">
-        <v>-0.002314814814818084</v>
+        <v>-0.002314814814818039</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002986111111115307</v>
+        <v>0.003314583333337918</v>
       </c>
       <c r="H2">
-        <v>-0.002314814814818084</v>
+        <v>-0.002314814814818039</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -603,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.002986111111115307</v>
+        <v>0.003553472222227138</v>
       </c>
       <c r="T2">
-        <v>-0.002314814814818084</v>
+        <v>-0.002314814814818039</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -618,22 +780,103 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0009953703703717686</v>
+        <v>0.001104861111112639</v>
       </c>
       <c r="Y2">
-        <v>-0.002314814814818084</v>
+        <v>-0.002314814814818039</v>
       </c>
       <c r="Z2">
-        <v>7.523148049939227E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>7.523148080952613E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>7.523147937487512E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.523148524261891E-05</v>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>-0.0002706597238511764</v>
+      </c>
+      <c r="BB2">
+        <v>-0.000270659722795611</v>
+      </c>
+      <c r="BC2">
+        <v>-0.0002706597255232104</v>
+      </c>
+      <c r="BD2">
+        <v>-0.0002706597167203006</v>
       </c>
     </row>
   </sheetData>

--- a/irecodes-master/demand.xlsx
+++ b/irecodes-master/demand.xlsx
@@ -1,20 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionageorginahansen/Desktop/ETH Zürich/Master/2. Semester/Projektarbeit/iReCoDes/irecodes-master/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA96AB-4725-AF42-8928-BFA7D7E1694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="25360" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>N0</t>
   </si>
@@ -88,87 +117,6 @@
     <t>PWFn20</t>
   </si>
   <si>
-    <t>f0t1Leak</t>
-  </si>
-  <si>
-    <t>f0t7Leak</t>
-  </si>
-  <si>
-    <t>f1t8Leak</t>
-  </si>
-  <si>
-    <t>f1t2Leak</t>
-  </si>
-  <si>
-    <t>f2t9Leak</t>
-  </si>
-  <si>
-    <t>f2t3Leak</t>
-  </si>
-  <si>
-    <t>f3t4Leak</t>
-  </si>
-  <si>
-    <t>f4t11Leak</t>
-  </si>
-  <si>
-    <t>f4t5Leak</t>
-  </si>
-  <si>
-    <t>f5t6Leak</t>
-  </si>
-  <si>
-    <t>f5t12Leak</t>
-  </si>
-  <si>
-    <t>f6t13Leak</t>
-  </si>
-  <si>
-    <t>f7t8Leak</t>
-  </si>
-  <si>
-    <t>f7t14Leak</t>
-  </si>
-  <si>
-    <t>f8t9Leak</t>
-  </si>
-  <si>
-    <t>f9t16Leak</t>
-  </si>
-  <si>
-    <t>f11t18Leak</t>
-  </si>
-  <si>
-    <t>f11t12Leak</t>
-  </si>
-  <si>
-    <t>f12t13Leak</t>
-  </si>
-  <si>
-    <t>f12t19Leak</t>
-  </si>
-  <si>
-    <t>f13t20Leak</t>
-  </si>
-  <si>
-    <t>f14t15Leak</t>
-  </si>
-  <si>
-    <t>f15t16Leak</t>
-  </si>
-  <si>
-    <t>f16t17Leak</t>
-  </si>
-  <si>
-    <t>f17t18Leak</t>
-  </si>
-  <si>
-    <t>f18t19Leak</t>
-  </si>
-  <si>
-    <t>f19t20Leak</t>
-  </si>
-  <si>
     <t>RES2</t>
   </si>
   <si>
@@ -179,13 +127,61 @@
   </si>
   <si>
     <t>RES20</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>t0-1</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t0 </t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>all components</t>
+  </si>
+  <si>
+    <t>leak demand</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>total demans</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,22 +233,2838 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>LoR </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3338538562959062E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6543493117824648E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8882589894314393E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12382423142517919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACCB-5D43-8A9B-E77297DFBF5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Supply</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.2592592592723368E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2592592592723368E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.314814814815653E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6296296296313121E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444470097E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2592592592630439E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592723368E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2592592592723368E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACCB-5D43-8A9B-E77297DFBF5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1622292864"/>
+        <c:axId val="1584264832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1622292864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [day]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584264832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1584264832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Demand,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Supply [m^3/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622292864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total demand</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3338538562959062E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6543493117824648E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8882589894314393E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12382423142517919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0705-EB4A-AE3D-1FA2EA3EF9BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>total supply</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3338538562959062E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.6543493117824648E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.8882589894314407E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1238242314251792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.9583333333459209E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0705-EB4A-AE3D-1FA2EA3EF9BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1584144528"/>
+        <c:axId val="1624663168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1584144528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624663168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624663168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584144528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3116C2F0-BDDF-1A02-3B21-281E90AC8C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8C525F-A9A3-2A34-CE85-BB7B1408DED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="S2">
+            <v>0</v>
+          </cell>
+          <cell r="T2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>9.8758767928669939E-9</v>
+          </cell>
+          <cell r="E2">
+            <v>-2.314814814815653E-3</v>
+          </cell>
+          <cell r="G2">
+            <v>1.3189540612699701E-8</v>
+          </cell>
+          <cell r="R2">
+            <v>1.481325794154953E-8</v>
+          </cell>
+          <cell r="V2">
+            <v>4.3964533929921423E-9</v>
+          </cell>
+          <cell r="AX2">
+            <v>-3.1023723748143411E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="W2">
+            <v>1.234775253712129E-3</v>
+          </cell>
+          <cell r="X2">
+            <v>1.234773580222067E-3</v>
+          </cell>
+          <cell r="Y2">
+            <v>1.2347755855500551E-3</v>
+          </cell>
+          <cell r="Z2">
+            <v>1.234779712196204E-3</v>
+          </cell>
+          <cell r="AA2">
+            <v>1.234779332853479E-3</v>
+          </cell>
+          <cell r="AB2">
+            <v>1.2347788798141659E-3</v>
+          </cell>
+          <cell r="AC2">
+            <v>1.2347619717908739E-3</v>
+          </cell>
+          <cell r="AD2">
+            <v>1.2347474768089691E-3</v>
+          </cell>
+          <cell r="AE2">
+            <v>1.234744535377026E-3</v>
+          </cell>
+          <cell r="AF2">
+            <v>1.2347447924794051E-3</v>
+          </cell>
+          <cell r="AG2">
+            <v>1.2347442246828249E-3</v>
+          </cell>
+          <cell r="AH2">
+            <v>1.234773805698108E-3</v>
+          </cell>
+          <cell r="AI2">
+            <v>1.234771312245039E-3</v>
+          </cell>
+          <cell r="AJ2">
+            <v>1.234775316208143E-3</v>
+          </cell>
+          <cell r="AK2">
+            <v>1.2347695184991749E-3</v>
+          </cell>
+          <cell r="AL2">
+            <v>1.234748028405071E-3</v>
+          </cell>
+          <cell r="AM2">
+            <v>1.234746043694109E-3</v>
+          </cell>
+          <cell r="AN2">
+            <v>1.2347451541769949E-3</v>
+          </cell>
+          <cell r="AO2">
+            <v>1.2347443749298E-3</v>
+          </cell>
+          <cell r="AP2">
+            <v>1.234744757948788E-3</v>
+          </cell>
+          <cell r="AQ2">
+            <v>1.2347440602055179E-3</v>
+          </cell>
+          <cell r="AR2">
+            <v>1.234768930463936E-3</v>
+          </cell>
+          <cell r="AS2">
+            <v>1.2347660161352489E-3</v>
+          </cell>
+          <cell r="AT2">
+            <v>1.234756334278877E-3</v>
+          </cell>
+          <cell r="AU2">
+            <v>1.234747637883774E-3</v>
+          </cell>
+          <cell r="AV2">
+            <v>1.2347453547365611E-3</v>
+          </cell>
+          <cell r="AW2">
+            <v>1.234744296833988E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>5.1833651755136359E-7</v>
+          </cell>
+          <cell r="E2">
+            <v>-2.314814814815656E-3</v>
+          </cell>
+          <cell r="G2">
+            <v>7.0256428268834861E-7</v>
+          </cell>
+          <cell r="H2">
+            <v>-2.314814814815656E-3</v>
+          </cell>
+          <cell r="S2">
+            <v>7.7750038923016649E-7</v>
+          </cell>
+          <cell r="W2">
+            <v>2.3418674819875119E-7</v>
+          </cell>
+          <cell r="AY2">
+            <v>-3.0956931736426729E-2</v>
+          </cell>
+          <cell r="AZ2">
+            <v>-3.0956931751766611E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="X2">
+            <v>2.4644913378628632E-3</v>
+          </cell>
+          <cell r="Y2">
+            <v>2.4644909789860881E-3</v>
+          </cell>
+          <cell r="Z2">
+            <v>2.4644914774184898E-3</v>
+          </cell>
+          <cell r="AA2">
+            <v>2.464492555720716E-3</v>
+          </cell>
+          <cell r="AB2">
+            <v>2.464492592346258E-3</v>
+          </cell>
+          <cell r="AC2">
+            <v>2.4644937403840621E-3</v>
+          </cell>
+          <cell r="AD2">
+            <v>2.464493645522846E-3</v>
+          </cell>
+          <cell r="AE2">
+            <v>2.4644920568833262E-3</v>
+          </cell>
+          <cell r="AF2">
+            <v>2.4644921142886029E-3</v>
+          </cell>
+          <cell r="AG2">
+            <v>2.4644907736144062E-3</v>
+          </cell>
+          <cell r="AH2">
+            <v>2.4644907392591601E-3</v>
+          </cell>
+          <cell r="AI2">
+            <v>2.464490456918776E-3</v>
+          </cell>
+          <cell r="AJ2">
+            <v>2.4644910439940351E-3</v>
+          </cell>
+          <cell r="AK2">
+            <v>2.464490612265694E-3</v>
+          </cell>
+          <cell r="AL2">
+            <v>2.4644914979943351E-3</v>
+          </cell>
+          <cell r="AM2">
+            <v>2.464490902396557E-3</v>
+          </cell>
+          <cell r="AN2">
+            <v>2.464490567920113E-3</v>
+          </cell>
+          <cell r="AO2">
+            <v>2.4644907036001701E-3</v>
+          </cell>
+          <cell r="AP2">
+            <v>2.4644904420861339E-3</v>
+          </cell>
+          <cell r="AQ2">
+            <v>2.4644903605815778E-3</v>
+          </cell>
+          <cell r="AR2">
+            <v>2.4644901836216658E-3</v>
+          </cell>
+          <cell r="AS2">
+            <v>2.4644903832161799E-3</v>
+          </cell>
+          <cell r="AT2">
+            <v>2.464490350688674E-3</v>
+          </cell>
+          <cell r="AU2">
+            <v>2.4644902917768581E-3</v>
+          </cell>
+          <cell r="AV2">
+            <v>2.4644902726892628E-3</v>
+          </cell>
+          <cell r="AW2">
+            <v>2.464490293926958E-3</v>
+          </cell>
+          <cell r="AX2">
+            <v>2.46449015392317E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>1.388446574326309E-5</v>
+          </cell>
+          <cell r="E2">
+            <v>-2.3148148148156699E-3</v>
+          </cell>
+          <cell r="G2">
+            <v>1.9035146174355741E-5</v>
+          </cell>
+          <cell r="H2">
+            <v>-2.3148148148156699E-3</v>
+          </cell>
+          <cell r="S2">
+            <v>2.0826695404425132E-5</v>
+          </cell>
+          <cell r="T2">
+            <v>-2.3148148148156699E-3</v>
+          </cell>
+          <cell r="X2">
+            <v>6.3450401288869181E-6</v>
+          </cell>
+          <cell r="AZ2">
+            <v>-3.0646048443577718E-2</v>
+          </cell>
+          <cell r="BA2">
+            <v>-3.0646048532068839E-2</v>
+          </cell>
+          <cell r="BB2">
+            <v>-3.0646048474220831E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="Y2">
+            <v>3.660092849440254E-3</v>
+          </cell>
+          <cell r="Z2">
+            <v>3.6600927984503291E-3</v>
+          </cell>
+          <cell r="AA2">
+            <v>3.6600929079569611E-3</v>
+          </cell>
+          <cell r="AB2">
+            <v>3.6600930998069272E-3</v>
+          </cell>
+          <cell r="AC2">
+            <v>3.66009323870206E-3</v>
+          </cell>
+          <cell r="AD2">
+            <v>3.6600932378519548E-3</v>
+          </cell>
+          <cell r="AE2">
+            <v>3.6600930653100279E-3</v>
+          </cell>
+          <cell r="AF2">
+            <v>3.6600925090340452E-3</v>
+          </cell>
+          <cell r="AG2">
+            <v>3.660092437653935E-3</v>
+          </cell>
+          <cell r="AH2">
+            <v>3.6600919647064981E-3</v>
+          </cell>
+          <cell r="AI2">
+            <v>3.6600920041385851E-3</v>
+          </cell>
+          <cell r="AJ2">
+            <v>3.6600918646557371E-3</v>
+          </cell>
+          <cell r="AK2">
+            <v>3.6600928309504979E-3</v>
+          </cell>
+          <cell r="AL2">
+            <v>3.660092805528209E-3</v>
+          </cell>
+          <cell r="AM2">
+            <v>3.6600929716022542E-3</v>
+          </cell>
+          <cell r="AN2">
+            <v>3.6600931959870908E-3</v>
+          </cell>
+          <cell r="AO2">
+            <v>3.6600921933189262E-3</v>
+          </cell>
+          <cell r="AP2">
+            <v>3.660092039579389E-3</v>
+          </cell>
+          <cell r="AQ2">
+            <v>3.660091880556948E-3</v>
+          </cell>
+          <cell r="AR2">
+            <v>3.6600919435699568E-3</v>
+          </cell>
+          <cell r="AS2">
+            <v>3.660091790004582E-3</v>
+          </cell>
+          <cell r="AT2">
+            <v>3.6600928700205081E-3</v>
+          </cell>
+          <cell r="AU2">
+            <v>3.6600930718238768E-3</v>
+          </cell>
+          <cell r="AV2">
+            <v>3.6600928422442711E-3</v>
+          </cell>
+          <cell r="AW2">
+            <v>3.6600923113604758E-3</v>
+          </cell>
+          <cell r="AX2">
+            <v>3.6600920084838848E-3</v>
+          </cell>
+          <cell r="AY2">
+            <v>3.660091814125287E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>4.592196147293259E-4</v>
+          </cell>
+          <cell r="E2">
+            <v>-2.314814814815761E-3</v>
+          </cell>
+          <cell r="G2">
+            <v>6.3532811742206784E-4</v>
+          </cell>
+          <cell r="H2">
+            <v>-2.314814814815761E-3</v>
+          </cell>
+          <cell r="S2">
+            <v>6.8882940796085787E-4</v>
+          </cell>
+          <cell r="T2">
+            <v>-2.314814814815761E-3</v>
+          </cell>
+          <cell r="X2">
+            <v>2.1177604827341711E-4</v>
+          </cell>
+          <cell r="Y2">
+            <v>-2.314814814815761E-3</v>
+          </cell>
+          <cell r="BA2">
+            <v>-2.8641243060242402E-2</v>
+          </cell>
+          <cell r="BB2">
+            <v>-2.864124303871236E-2</v>
+          </cell>
+          <cell r="BC2">
+            <v>-2.8641243089279039E-2</v>
+          </cell>
+          <cell r="BD2">
+            <v>-2.864124297768237E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="Z2">
+            <v>4.5121880004296948E-3</v>
+          </cell>
+          <cell r="AA2">
+            <v>4.5121879871222719E-3</v>
+          </cell>
+          <cell r="AB2">
+            <v>4.5121880169607326E-3</v>
+          </cell>
+          <cell r="AC2">
+            <v>4.5121880677597538E-3</v>
+          </cell>
+          <cell r="AD2">
+            <v>4.5121881097642744E-3</v>
+          </cell>
+          <cell r="AE2">
+            <v>4.5121881599983499E-3</v>
+          </cell>
+          <cell r="AF2">
+            <v>4.5121881678885697E-3</v>
+          </cell>
+          <cell r="AG2">
+            <v>4.5121881236132961E-3</v>
+          </cell>
+          <cell r="AH2">
+            <v>4.5121881248841832E-3</v>
+          </cell>
+          <cell r="AI2">
+            <v>4.512188096130576E-3</v>
+          </cell>
+          <cell r="AJ2">
+            <v>4.5121880955912713E-3</v>
+          </cell>
+          <cell r="AK2">
+            <v>4.5121881004719462E-3</v>
+          </cell>
+          <cell r="AL2">
+            <v>4.5121879963107526E-3</v>
+          </cell>
+          <cell r="AM2">
+            <v>4.5121879901057404E-3</v>
+          </cell>
+          <cell r="AN2">
+            <v>4.5121880354160931E-3</v>
+          </cell>
+          <cell r="AO2">
+            <v>4.5121881019221542E-3</v>
+          </cell>
+          <cell r="AP2">
+            <v>4.5121880925964074E-3</v>
+          </cell>
+          <cell r="AQ2">
+            <v>4.5121880947451669E-3</v>
+          </cell>
+          <cell r="AR2">
+            <v>4.5121880998453684E-3</v>
+          </cell>
+          <cell r="AS2">
+            <v>4.5121880991599713E-3</v>
+          </cell>
+          <cell r="AT2">
+            <v>4.512188151854361E-3</v>
+          </cell>
+          <cell r="AU2">
+            <v>4.5121880091124238E-3</v>
+          </cell>
+          <cell r="AV2">
+            <v>4.5121880687399611E-3</v>
+          </cell>
+          <cell r="AW2">
+            <v>4.5121881078399994E-3</v>
+          </cell>
+          <cell r="AX2">
+            <v>4.5121880912231084E-3</v>
+          </cell>
+          <cell r="AY2">
+            <v>4.5121880966658172E-3</v>
+          </cell>
+          <cell r="AZ2">
+            <v>4.5121881506413018E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -294,7 +3106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +3138,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,6 +3190,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,207 +3383,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:56">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002368981481484757</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.002314814814818039</v>
+        <v>1.9907407407435372E-3</v>
       </c>
       <c r="F2">
+        <v>-2.3148148148180842E-3</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0.003314583333337918</v>
-      </c>
       <c r="H2">
-        <v>-0.002314814814818039</v>
+        <v>2.9861111111153071E-3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-2.3148148148180842E-3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -765,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003553472222227138</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-0.002314814814818039</v>
+        <v>2.9861111111153071E-3</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-2.3148148148180842E-3</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -780,106 +3553,420 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001104861111112639</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>-0.002314814814818039</v>
+        <v>9.9537037037176861E-4</v>
       </c>
       <c r="Z2">
+        <v>-2.3148148148180842E-3</v>
+      </c>
+      <c r="AA2">
+        <v>7.5231480499392267E-5</v>
+      </c>
+      <c r="AB2">
+        <v>7.5231480809529599E-5</v>
+      </c>
+      <c r="AC2">
+        <v>7.5231479374875121E-5</v>
+      </c>
+      <c r="AD2">
+        <v>7.5231485242618912E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <f>E2+H2+T2+Y2</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="D6">
+        <f>F2+I2+U2+Z2</f>
+        <v>-9.2592592592723368E-3</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="F6">
+        <f>SUM(AA2:AD2)</f>
+        <v>3.009259259264159E-4</v>
+      </c>
+      <c r="H6">
+        <f>C6+E6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="I6">
+        <f>D6+F6</f>
+        <v>-8.9583333333459209E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <f>C6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="H7">
+        <f>H6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="I7">
+        <f>I6</f>
+        <v>-8.9583333333459209E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <f>0</f>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="C8">
+        <f>[1]Sheet1!$D$2+[1]Sheet1!$G$2+[1]Sheet1!$S$2+[1]Sheet1!$X$2</f>
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="D8">
+        <f>[1]Sheet1!$Y$2+[1]Sheet1!$T$2+[1]Sheet1!$H$2+[1]Sheet1!$E$2</f>
         <v>0</v>
       </c>
-      <c r="AD2">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="AE2">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="AF2">
+      <c r="H8">
+        <f t="shared" ref="H8:H13" si="0">C8+E8</f>
         <v>0</v>
       </c>
-      <c r="AG2">
+      <c r="I8">
+        <f t="shared" ref="I8:I14" si="1">D8+F8</f>
         <v>0</v>
       </c>
-      <c r="AH2">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>[2]Sheet1!$D$2+[2]Sheet1!$G$2+[2]Sheet1!$R$2+[2]Sheet1!$V$2</f>
+        <v>4.2275128740108366E-8</v>
+      </c>
+      <c r="D9">
+        <f>[2]Sheet1!$E$2</f>
+        <v>-2.314814814815653E-3</v>
+      </c>
+      <c r="E9">
+        <f>SUM([3]Sheet1!$W$2:$AW$2)</f>
+        <v>3.3338496287830324E-2</v>
+      </c>
+      <c r="F9">
+        <f>[2]Sheet1!$AX$2</f>
+        <v>-3.1023723748143411E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.3338538562959062E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-3.3338538562959062E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f>[4]Sheet1!$D$2+[4]Sheet1!$G$2+[4]Sheet1!$W$2+[4]Sheet1!$S$2</f>
+        <v>2.2325879376686298E-6</v>
+      </c>
+      <c r="D10">
+        <f>[4]Sheet1!$E$2+[4]Sheet1!$H$2</f>
+        <v>-4.6296296296313121E-3</v>
+      </c>
+      <c r="E10">
+        <f>SUM([5]Sheet1!$X$2:$AX$2)</f>
+        <v>6.6541260529886972E-2</v>
+      </c>
+      <c r="F10">
+        <f>[4]Sheet1!$AY$2+[4]Sheet1!$AZ$2</f>
+        <v>-6.1913863488193339E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6.6543493117824648E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-6.6543493117824648E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <f>[6]Sheet1!$D$2+[6]Sheet1!$G$2+[6]Sheet1!$S$2+[6]Sheet1!$X$2</f>
+        <v>6.0091347450930878E-5</v>
+      </c>
+      <c r="D11">
+        <f>[6]Sheet1!$E$2+[6]Sheet1!$H$2+[6]Sheet1!$T$2</f>
+        <v>-6.9444444444470097E-3</v>
+      </c>
+      <c r="E11">
+        <f>SUM([7]Sheet1!$Y$2:$AY$2)</f>
+        <v>9.8822498546863466E-2</v>
+      </c>
+      <c r="F11">
+        <f>[6]Sheet1!$AZ$2+[6]Sheet1!$BA$2+[6]Sheet1!$BB$2</f>
+        <v>-9.1938145449867392E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>9.8882589894314393E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-9.8882589894314407E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <f>[8]Sheet1!$D$2+[8]Sheet1!$G$2+[8]Sheet1!$S$2+[8]Sheet1!$X$2</f>
+        <v>1.995153188385669E-3</v>
+      </c>
+      <c r="D12">
+        <f>[8]Sheet1!$E$2+[8]Sheet1!$H$2+[8]Sheet1!$T$2+[8]Sheet1!$Y$2</f>
+        <v>-9.2592592592630439E-3</v>
+      </c>
+      <c r="E12">
+        <f>SUM([9]Sheet1!$Z$2:$AZ$2)</f>
+        <v>0.12182907823679352</v>
+      </c>
+      <c r="F12">
+        <f>SUM([8]Sheet1!$BA$2:$BD$2)</f>
+        <v>-0.11456497216591616</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.12382423142517919</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-0.1238242314251792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <f>C6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="D13">
+        <f>D6</f>
+        <v>-9.2592592592723368E-3</v>
+      </c>
+      <c r="E13">
+        <f>E6</f>
         <v>0</v>
       </c>
-      <c r="AI2">
+      <c r="F13">
+        <f>F6</f>
+        <v>3.009259259264159E-4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-8.9583333333459209E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f>C6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="D14">
+        <f>D6</f>
+        <v>-9.2592592592723368E-3</v>
+      </c>
+      <c r="E14">
+        <f>0</f>
         <v>0</v>
       </c>
-      <c r="AJ2">
+      <c r="F14">
+        <f>F13</f>
+        <v>3.009259259264159E-4</v>
+      </c>
+      <c r="H14">
+        <f>H6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-8.9583333333459209E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>D6*D16</f>
+        <v>9.2592592592723368E-3</v>
+      </c>
+      <c r="D16">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>C16</f>
+        <v>9.2592592592723368E-3</v>
+      </c>
+      <c r="D17">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" ref="C18:C23" si="2">D8*D18</f>
         <v>0</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>-0.0002706597238511764</v>
-      </c>
-      <c r="BB2">
-        <v>-0.000270659722795611</v>
-      </c>
-      <c r="BC2">
-        <v>-0.0002706597255232104</v>
-      </c>
-      <c r="BD2">
-        <v>-0.0002706597167203006</v>
+      <c r="D18">
+        <f t="shared" ref="D18:D24" si="3">-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>2.314814814815653E-3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>4.6296296296313121E-3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>6.9444444444470097E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>9.2592592592630439E-3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>9.2592592592723368E-3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" ref="C24" si="4">D14*D24</f>
+        <v>9.2592592592723368E-3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/irecodes-master/demand.xlsx
+++ b/irecodes-master/demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionageorginahansen/Desktop/ETH Zürich/Master/2. Semester/Projektarbeit/iReCoDes/irecodes-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA96AB-4725-AF42-8928-BFA7D7E1694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE5589B-3AE0-2341-8C39-A2EA04750A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="25360" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="25360" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>N0</t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand </t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>area d</t>
+  </si>
+  <si>
+    <t>area c</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>LOR</t>
   </si>
 </sst>
 </file>
@@ -293,7 +311,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>LoR </a:t>
+              <a:t>Lack</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Resilience </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -336,6 +362,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Demand</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -397,16 +426,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3338538562959062E-2</c:v>
+                  <c:v>3.1284817514927982E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6543493117824648E-2</c:v>
+                  <c:v>5.0719934885746228E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8882589894314393E-2</c:v>
+                  <c:v>4.9482148229001183E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12382423142517919</c:v>
+                  <c:v>3.3312524653337783E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.9583333333459209E-3</c:v>
@@ -491,16 +520,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.314814814815653E-3</c:v>
+                  <c:v>2.3148148148157458E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6296296296313121E-3</c:v>
+                  <c:v>4.6296296296320979E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9444444444470097E-3</c:v>
+                  <c:v>6.9444444444499015E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2592592592630439E-3</c:v>
+                  <c:v>9.2592592592694728E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.2592592592723368E-3</c:v>
@@ -515,6 +544,67 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACCB-5D43-8A9B-E77297DFBF5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Consumption</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0810271990276421E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9109134990022383E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0127314814854543E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4606481481567831E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9583333333459209E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-044F-9141-8409-5728F6E3A5E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -840,481 +930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Total demand</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$6:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.9583333333459209E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9583333333459209E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3338538562959062E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6543493117824648E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.8882589894314393E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12382423142517919</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.9583333333459209E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0705-EB4A-AE3D-1FA2EA3EF9BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>total supply</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$6:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-8.9583333333459209E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-8.9583333333459209E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.3338538562959062E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.6543493117824648E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.8882589894314407E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1238242314251792</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.9583333333459209E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0705-EB4A-AE3D-1FA2EA3EF9BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1584144528"/>
-        <c:axId val="1624663168"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1584144528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1624663168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1624663168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1584144528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1870,522 +1486,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2424,42 +1524,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8C525F-A9A3-2A34-CE85-BB7B1408DED5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2513,22 +1577,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>9.8758767928669939E-9</v>
+            <v>2.5252800027779121E-4</v>
           </cell>
           <cell r="E2">
-            <v>-2.314814814815653E-3</v>
+            <v>-2.3148148148157458E-3</v>
           </cell>
           <cell r="G2">
-            <v>1.3189540612699701E-8</v>
+            <v>3.3728045202900572E-4</v>
           </cell>
           <cell r="R2">
-            <v>1.481325794154953E-8</v>
+            <v>3.7879193601760561E-4</v>
           </cell>
           <cell r="V2">
-            <v>4.3964533929921423E-9</v>
+            <v>1.124268107032396E-4</v>
           </cell>
           <cell r="AX2">
-            <v>-3.1023723748143411E-2</v>
+            <v>-2.8970002700112241E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2547,85 +1611,85 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="W2">
-            <v>1.234775253712129E-3</v>
+            <v>1.118658944907298E-3</v>
           </cell>
           <cell r="X2">
-            <v>1.234773580222067E-3</v>
+            <v>1.1186589402788891E-3</v>
           </cell>
           <cell r="Y2">
-            <v>1.2347755855500551E-3</v>
+            <v>1.1186589457752639E-3</v>
           </cell>
           <cell r="Z2">
-            <v>1.234779712196204E-3</v>
+            <v>1.1186589570429089E-3</v>
           </cell>
           <cell r="AA2">
-            <v>1.234779332853479E-3</v>
+            <v>1.1186589559292919E-3</v>
           </cell>
           <cell r="AB2">
-            <v>1.2347788798141659E-3</v>
+            <v>1.1186589546182449E-3</v>
           </cell>
           <cell r="AC2">
-            <v>1.2347619717908739E-3</v>
+            <v>1.1186589081585081E-3</v>
           </cell>
           <cell r="AD2">
-            <v>1.2347474768089691E-3</v>
+            <v>1.118658868601263E-3</v>
           </cell>
           <cell r="AE2">
-            <v>1.234744535377026E-3</v>
+            <v>1.1186588608109881E-3</v>
           </cell>
           <cell r="AF2">
-            <v>1.2347447924794051E-3</v>
+            <v>1.118658861505791E-3</v>
           </cell>
           <cell r="AG2">
-            <v>1.2347442246828249E-3</v>
+            <v>1.1186588599549311E-3</v>
           </cell>
           <cell r="AH2">
-            <v>1.234773805698108E-3</v>
+            <v>1.1186589408805369E-3</v>
           </cell>
           <cell r="AI2">
-            <v>1.234771312245039E-3</v>
+            <v>1.1186589339748311E-3</v>
           </cell>
           <cell r="AJ2">
-            <v>1.234775316208143E-3</v>
+            <v>1.118658944971565E-3</v>
           </cell>
           <cell r="AK2">
-            <v>1.2347695184991749E-3</v>
+            <v>1.1186589286058511E-3</v>
           </cell>
           <cell r="AL2">
-            <v>1.234748028405071E-3</v>
+            <v>1.1186588700954621E-3</v>
           </cell>
           <cell r="AM2">
-            <v>1.234746043694109E-3</v>
+            <v>1.1186588649115591E-3</v>
           </cell>
           <cell r="AN2">
-            <v>1.2347451541769949E-3</v>
+            <v>1.118658862505207E-3</v>
           </cell>
           <cell r="AO2">
-            <v>1.2347443749298E-3</v>
+            <v>1.1186588603686121E-3</v>
           </cell>
           <cell r="AP2">
-            <v>1.234744757948788E-3</v>
+            <v>1.118658861418395E-3</v>
           </cell>
           <cell r="AQ2">
-            <v>1.2347440602055179E-3</v>
+            <v>1.1186588594359441E-3</v>
           </cell>
           <cell r="AR2">
-            <v>1.234768930463936E-3</v>
+            <v>1.1186589272576891E-3</v>
           </cell>
           <cell r="AS2">
-            <v>1.2347660161352489E-3</v>
+            <v>1.1186589188292449E-3</v>
           </cell>
           <cell r="AT2">
-            <v>1.234756334278877E-3</v>
+            <v>1.118658892611467E-3</v>
           </cell>
           <cell r="AU2">
-            <v>1.234747637883774E-3</v>
+            <v>1.1186588692876931E-3</v>
           </cell>
           <cell r="AV2">
-            <v>1.2347453547365611E-3</v>
+            <v>1.118658863070777E-3</v>
           </cell>
           <cell r="AW2">
-            <v>1.234744296833988E-3</v>
+            <v>1.1186588600921299E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -2644,28 +1708,28 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>5.1833651755136359E-7</v>
+            <v>1.604491810116861E-3</v>
           </cell>
           <cell r="E2">
-            <v>-2.314814814815656E-3</v>
+            <v>-2.3148148148160489E-3</v>
           </cell>
           <cell r="G2">
-            <v>7.0256428268834861E-7</v>
+            <v>2.174762994634804E-3</v>
           </cell>
           <cell r="H2">
-            <v>-2.314814814815656E-3</v>
+            <v>-2.3148148148160489E-3</v>
           </cell>
           <cell r="S2">
-            <v>7.7750038923016649E-7</v>
+            <v>2.4067377002326509E-3</v>
           </cell>
           <cell r="W2">
-            <v>2.3418674819875119E-7</v>
+            <v>7.2492099401792146E-4</v>
           </cell>
           <cell r="AY2">
-            <v>-3.0956931736426729E-2</v>
+            <v>-2.3045152622186999E-2</v>
           </cell>
           <cell r="AZ2">
-            <v>-3.0956931751766611E-2</v>
+            <v>-2.3045152633927129E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2684,85 +1748,85 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="X2">
-            <v>2.4644913378628632E-3</v>
+            <v>1.62255634881018E-3</v>
           </cell>
           <cell r="Y2">
-            <v>2.4644909789860881E-3</v>
+            <v>1.622556347230399E-3</v>
           </cell>
           <cell r="Z2">
-            <v>2.4644914774184898E-3</v>
+            <v>1.6225563493086439E-3</v>
           </cell>
           <cell r="AA2">
-            <v>2.464492555720716E-3</v>
+            <v>1.622556353658002E-3</v>
           </cell>
           <cell r="AB2">
-            <v>2.464492592346258E-3</v>
+            <v>1.622556353659367E-3</v>
           </cell>
           <cell r="AC2">
-            <v>2.4644937403840621E-3</v>
+            <v>1.6225563580380691E-3</v>
           </cell>
           <cell r="AD2">
-            <v>2.464493645522846E-3</v>
+            <v>1.622556357575353E-3</v>
           </cell>
           <cell r="AE2">
-            <v>2.4644920568833262E-3</v>
+            <v>1.6225563515395039E-3</v>
           </cell>
           <cell r="AF2">
-            <v>2.4644921142886029E-3</v>
+            <v>1.622556351838605E-3</v>
           </cell>
           <cell r="AG2">
-            <v>2.4644907736144062E-3</v>
+            <v>1.6225563465940009E-3</v>
           </cell>
           <cell r="AH2">
-            <v>2.4644907392591601E-3</v>
+            <v>1.6225563464153769E-3</v>
           </cell>
           <cell r="AI2">
-            <v>2.464490456918776E-3</v>
+            <v>1.62255634521768E-3</v>
           </cell>
           <cell r="AJ2">
-            <v>2.4644910439940351E-3</v>
+            <v>1.622556347505651E-3</v>
           </cell>
           <cell r="AK2">
-            <v>2.464490612265694E-3</v>
+            <v>1.6225563455167151E-3</v>
           </cell>
           <cell r="AL2">
-            <v>2.4644914979943351E-3</v>
+            <v>1.622556349309495E-3</v>
           </cell>
           <cell r="AM2">
-            <v>2.464490902396557E-3</v>
+            <v>1.6225563460964859E-3</v>
           </cell>
           <cell r="AN2">
-            <v>2.464490567920113E-3</v>
+            <v>1.622556345514393E-3</v>
           </cell>
           <cell r="AO2">
-            <v>2.4644907036001701E-3</v>
+            <v>1.6225563462138599E-3</v>
           </cell>
           <cell r="AP2">
-            <v>2.4644904420861339E-3</v>
+            <v>1.6225563451323179E-3</v>
           </cell>
           <cell r="AQ2">
-            <v>2.4644903605815778E-3</v>
+            <v>1.622556344699988E-3</v>
           </cell>
           <cell r="AR2">
-            <v>2.4644901836216658E-3</v>
+            <v>1.6225563438148111E-3</v>
           </cell>
           <cell r="AS2">
-            <v>2.4644903832161799E-3</v>
+            <v>1.622556344206946E-3</v>
           </cell>
           <cell r="AT2">
-            <v>2.464490350688674E-3</v>
+            <v>1.6225563435540509E-3</v>
           </cell>
           <cell r="AU2">
-            <v>2.4644902917768581E-3</v>
+            <v>1.622556343453396E-3</v>
           </cell>
           <cell r="AV2">
-            <v>2.4644902726892628E-3</v>
+            <v>1.622556343925265E-3</v>
           </cell>
           <cell r="AW2">
-            <v>2.464490293926958E-3</v>
+            <v>1.622556344308436E-3</v>
           </cell>
           <cell r="AX2">
-            <v>2.46449015392317E-3</v>
+            <v>1.622556343606994E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -2781,34 +1845,34 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>1.388446574326309E-5</v>
+            <v>1.8513888888898071E-3</v>
           </cell>
           <cell r="E2">
-            <v>-2.3148148148156699E-3</v>
+            <v>-2.314814814816634E-3</v>
           </cell>
           <cell r="G2">
-            <v>1.9035146174355741E-5</v>
+            <v>2.538194444445703E-3</v>
           </cell>
           <cell r="H2">
-            <v>-2.3148148148156699E-3</v>
+            <v>-2.314814814816634E-3</v>
           </cell>
           <cell r="S2">
-            <v>2.0826695404425132E-5</v>
+            <v>2.7770833333347102E-3</v>
           </cell>
           <cell r="T2">
-            <v>-2.3148148148156699E-3</v>
+            <v>-2.314814814816634E-3</v>
           </cell>
           <cell r="X2">
-            <v>6.3450401288869181E-6</v>
+            <v>8.4606481481523427E-4</v>
           </cell>
           <cell r="AZ2">
-            <v>-3.0646048443577718E-2</v>
+            <v>-1.41792345792964E-2</v>
           </cell>
           <cell r="BA2">
-            <v>-3.0646048532068839E-2</v>
+            <v>-1.417923461333883E-2</v>
           </cell>
           <cell r="BB2">
-            <v>-3.0646048474220831E-2</v>
+            <v>-1.417923459191605E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2827,85 +1891,85 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="Y2">
-            <v>3.660092849440254E-3</v>
+            <v>1.5359043249876211E-3</v>
           </cell>
           <cell r="Z2">
-            <v>3.6600927984503291E-3</v>
+            <v>1.5359043248066391E-3</v>
           </cell>
           <cell r="AA2">
-            <v>3.6600929079569611E-3</v>
+            <v>1.5359043251437061E-3</v>
           </cell>
           <cell r="AB2">
-            <v>3.6600930998069272E-3</v>
+            <v>1.5359043257599011E-3</v>
           </cell>
           <cell r="AC2">
-            <v>3.66009323870206E-3</v>
+            <v>1.535904326096957E-3</v>
           </cell>
           <cell r="AD2">
-            <v>3.6600932378519548E-3</v>
+            <v>1.535904326051468E-3</v>
           </cell>
           <cell r="AE2">
-            <v>3.6600930653100279E-3</v>
+            <v>1.5359043254056311E-3</v>
           </cell>
           <cell r="AF2">
-            <v>3.6600925090340452E-3</v>
+            <v>1.535904323895955E-3</v>
           </cell>
           <cell r="AG2">
-            <v>3.660092437653935E-3</v>
+            <v>1.53590432368744E-3</v>
           </cell>
           <cell r="AH2">
-            <v>3.6600919647064981E-3</v>
+            <v>1.535904322287272E-3</v>
           </cell>
           <cell r="AI2">
-            <v>3.6600920041385851E-3</v>
+            <v>1.5359043223993E-3</v>
           </cell>
           <cell r="AJ2">
-            <v>3.6600918646557371E-3</v>
+            <v>1.5359043219200889E-3</v>
           </cell>
           <cell r="AK2">
-            <v>3.6600928309504979E-3</v>
+            <v>1.535904324904963E-3</v>
           </cell>
           <cell r="AL2">
-            <v>3.660092805528209E-3</v>
+            <v>1.53590432481441E-3</v>
           </cell>
           <cell r="AM2">
-            <v>3.6600929716022542E-3</v>
+            <v>1.535904325332403E-3</v>
           </cell>
           <cell r="AN2">
-            <v>3.6600931959870908E-3</v>
+            <v>1.5359043259166589E-3</v>
           </cell>
           <cell r="AO2">
-            <v>3.6600921933189262E-3</v>
+            <v>1.535904322964417E-3</v>
           </cell>
           <cell r="AP2">
-            <v>3.660092039579389E-3</v>
+            <v>1.5359043225256061E-3</v>
           </cell>
           <cell r="AQ2">
-            <v>3.660091880556948E-3</v>
+            <v>1.5359043219744159E-3</v>
           </cell>
           <cell r="AR2">
-            <v>3.6600919435699568E-3</v>
+            <v>1.535904322173871E-3</v>
           </cell>
           <cell r="AS2">
-            <v>3.660091790004582E-3</v>
+            <v>1.535904321536993E-3</v>
           </cell>
           <cell r="AT2">
-            <v>3.6600928700205081E-3</v>
+            <v>1.5359043250110459E-3</v>
           </cell>
           <cell r="AU2">
-            <v>3.6600930718238768E-3</v>
+            <v>1.5359043255773141E-3</v>
           </cell>
           <cell r="AV2">
-            <v>3.6600928422442711E-3</v>
+            <v>1.535904324922021E-3</v>
           </cell>
           <cell r="AW2">
-            <v>3.6600923113604758E-3</v>
+            <v>1.535904323367009E-3</v>
           </cell>
           <cell r="AX2">
-            <v>3.6600920084838848E-3</v>
+            <v>1.535904322408133E-3</v>
           </cell>
           <cell r="AY2">
-            <v>3.660091814125287E-3</v>
+            <v>1.5359043216444891E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -2924,40 +1988,40 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>4.592196147293259E-4</v>
+            <v>1.9509259259279171E-3</v>
           </cell>
           <cell r="E2">
-            <v>-2.314814814815761E-3</v>
+            <v>-2.3148148148173682E-3</v>
           </cell>
           <cell r="G2">
-            <v>6.3532811742206784E-4</v>
+            <v>2.6875000000027428E-3</v>
           </cell>
           <cell r="H2">
-            <v>-2.314814814815761E-3</v>
+            <v>-2.3148148148173682E-3</v>
           </cell>
           <cell r="S2">
-            <v>6.8882940796085787E-4</v>
+            <v>2.9263888888918762E-3</v>
           </cell>
           <cell r="T2">
-            <v>-2.314814814815761E-3</v>
+            <v>-2.3148148148173682E-3</v>
           </cell>
           <cell r="X2">
-            <v>2.1177604827341711E-4</v>
+            <v>8.9583333333424775E-4</v>
           </cell>
           <cell r="Y2">
-            <v>-2.314814814815761E-3</v>
+            <v>-2.3148148148173682E-3</v>
           </cell>
           <cell r="BA2">
-            <v>-2.8641243060242402E-2</v>
+            <v>-6.0133163526314114E-3</v>
           </cell>
           <cell r="BB2">
-            <v>-2.864124303871236E-2</v>
+            <v>-6.0133163492117614E-3</v>
           </cell>
           <cell r="BC2">
-            <v>-2.8641243089279039E-2</v>
+            <v>-6.0133163572407659E-3</v>
           </cell>
           <cell r="BD2">
-            <v>-2.864124297768237E-2</v>
+            <v>-6.0133163349843644E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -2976,85 +2040,85 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="Z2">
-            <v>4.5121880004296948E-3</v>
+            <v>9.2043987036574551E-4</v>
           </cell>
           <cell r="AA2">
-            <v>4.5121879871222719E-3</v>
+            <v>9.2043987032678276E-4</v>
           </cell>
           <cell r="AB2">
-            <v>4.5121880169607326E-3</v>
+            <v>9.204398703959477E-4</v>
           </cell>
           <cell r="AC2">
-            <v>4.5121880677597538E-3</v>
+            <v>9.2043987052130923E-4</v>
           </cell>
           <cell r="AD2">
-            <v>4.5121881097642744E-3</v>
+            <v>9.2043987058839716E-4</v>
           </cell>
           <cell r="AE2">
-            <v>4.5121881599983499E-3</v>
+            <v>9.2043987068560543E-4</v>
           </cell>
           <cell r="AF2">
-            <v>4.5121881678885697E-3</v>
+            <v>9.2043987071089412E-4</v>
           </cell>
           <cell r="AG2">
-            <v>4.5121881236132961E-3</v>
+            <v>9.2043987066070456E-4</v>
           </cell>
           <cell r="AH2">
-            <v>4.5121881248841832E-3</v>
+            <v>9.204398706695626E-4</v>
           </cell>
           <cell r="AI2">
-            <v>4.512188096130576E-3</v>
+            <v>9.2043987061831366E-4</v>
           </cell>
           <cell r="AJ2">
-            <v>4.5121880955912713E-3</v>
+            <v>9.2043987061447862E-4</v>
           </cell>
           <cell r="AK2">
-            <v>4.5121881004719462E-3</v>
+            <v>9.2043987064295259E-4</v>
           </cell>
           <cell r="AL2">
-            <v>4.5121879963107526E-3</v>
+            <v>9.2043987034811563E-4</v>
           </cell>
           <cell r="AM2">
-            <v>4.5121879901057404E-3</v>
+            <v>9.2043987033052922E-4</v>
           </cell>
           <cell r="AN2">
-            <v>4.5121880354160931E-3</v>
+            <v>9.2043987043832396E-4</v>
           </cell>
           <cell r="AO2">
-            <v>4.5121881019221542E-3</v>
+            <v>9.2043987055950881E-4</v>
           </cell>
           <cell r="AP2">
-            <v>4.5121880925964074E-3</v>
+            <v>9.2043987059071497E-4</v>
           </cell>
           <cell r="AQ2">
-            <v>4.5121880947451669E-3</v>
+            <v>9.2043987060745798E-4</v>
           </cell>
           <cell r="AR2">
-            <v>4.5121880998453684E-3</v>
+            <v>9.2043987063827133E-4</v>
           </cell>
           <cell r="AS2">
-            <v>4.5121880991599713E-3</v>
+            <v>9.2043987063251888E-4</v>
           </cell>
           <cell r="AT2">
-            <v>4.512188151854361E-3</v>
+            <v>9.204398707996172E-4</v>
           </cell>
           <cell r="AU2">
-            <v>4.5121880091124238E-3</v>
+            <v>9.204398703772232E-4</v>
           </cell>
           <cell r="AV2">
-            <v>4.5121880687399611E-3</v>
+            <v>9.2043987050053646E-4</v>
           </cell>
           <cell r="AW2">
-            <v>4.5121881078399994E-3</v>
+            <v>9.2043987058426494E-4</v>
           </cell>
           <cell r="AX2">
-            <v>4.5121880912231084E-3</v>
+            <v>9.2043987057015329E-4</v>
           </cell>
           <cell r="AY2">
-            <v>4.5121880966658172E-3</v>
+            <v>9.2043987061216808E-4</v>
           </cell>
           <cell r="AZ2">
-            <v>4.5121881506413018E-3</v>
+            <v>9.204398707908974E-4</v>
           </cell>
         </row>
       </sheetData>
@@ -3384,16 +2448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
@@ -3689,27 +2753,27 @@
       </c>
       <c r="C9">
         <f>[2]Sheet1!$D$2+[2]Sheet1!$G$2+[2]Sheet1!$R$2+[2]Sheet1!$V$2</f>
-        <v>4.2275128740108366E-8</v>
+        <v>1.0810271990276421E-3</v>
       </c>
       <c r="D9">
         <f>[2]Sheet1!$E$2</f>
-        <v>-2.314814814815653E-3</v>
+        <v>-2.3148148148157458E-3</v>
       </c>
       <c r="E9">
         <f>SUM([3]Sheet1!$W$2:$AW$2)</f>
-        <v>3.3338496287830324E-2</v>
+        <v>3.0203790315900342E-2</v>
       </c>
       <c r="F9">
         <f>[2]Sheet1!$AX$2</f>
-        <v>-3.1023723748143411E-2</v>
+        <v>-2.8970002700112241E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>3.3338538562959062E-2</v>
+        <v>3.1284817514927982E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>-3.3338538562959062E-2</v>
+        <v>-3.1284817514927989E-2</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -3722,27 +2786,27 @@
       </c>
       <c r="C10">
         <f>[4]Sheet1!$D$2+[4]Sheet1!$G$2+[4]Sheet1!$W$2+[4]Sheet1!$S$2</f>
-        <v>2.2325879376686298E-6</v>
+        <v>6.9109134990022383E-3</v>
       </c>
       <c r="D10">
         <f>[4]Sheet1!$E$2+[4]Sheet1!$H$2</f>
-        <v>-4.6296296296313121E-3</v>
+        <v>-4.6296296296320979E-3</v>
       </c>
       <c r="E10">
         <f>SUM([5]Sheet1!$X$2:$AX$2)</f>
-        <v>6.6541260529886972E-2</v>
+        <v>4.3809021386743988E-2</v>
       </c>
       <c r="F10">
         <f>[4]Sheet1!$AY$2+[4]Sheet1!$AZ$2</f>
-        <v>-6.1913863488193339E-2</v>
+        <v>-4.6090305256114128E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>6.6543493117824648E-2</v>
+        <v>5.0719934885746228E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>-6.6543493117824648E-2</v>
+        <v>-5.0719934885746228E-2</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -3755,27 +2819,27 @@
       </c>
       <c r="C11">
         <f>[6]Sheet1!$D$2+[6]Sheet1!$G$2+[6]Sheet1!$S$2+[6]Sheet1!$X$2</f>
-        <v>6.0091347450930878E-5</v>
+        <v>8.0127314814854543E-3</v>
       </c>
       <c r="D11">
         <f>[6]Sheet1!$E$2+[6]Sheet1!$H$2+[6]Sheet1!$T$2</f>
-        <v>-6.9444444444470097E-3</v>
+        <v>-6.9444444444499015E-3</v>
       </c>
       <c r="E11">
         <f>SUM([7]Sheet1!$Y$2:$AY$2)</f>
-        <v>9.8822498546863466E-2</v>
+        <v>4.1469416747515725E-2</v>
       </c>
       <c r="F11">
         <f>[6]Sheet1!$AZ$2+[6]Sheet1!$BA$2+[6]Sheet1!$BB$2</f>
-        <v>-9.1938145449867392E-2</v>
+        <v>-4.2537703784551281E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>9.8882589894314393E-2</v>
+        <v>4.9482148229001183E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>-9.8882589894314407E-2</v>
+        <v>-4.9482148229001183E-2</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -3788,27 +2852,27 @@
       </c>
       <c r="C12">
         <f>[8]Sheet1!$D$2+[8]Sheet1!$G$2+[8]Sheet1!$S$2+[8]Sheet1!$X$2</f>
-        <v>1.995153188385669E-3</v>
+        <v>8.4606481481567831E-3</v>
       </c>
       <c r="D12">
         <f>[8]Sheet1!$E$2+[8]Sheet1!$H$2+[8]Sheet1!$T$2+[8]Sheet1!$Y$2</f>
-        <v>-9.2592592592630439E-3</v>
+        <v>-9.2592592592694728E-3</v>
       </c>
       <c r="E12">
         <f>SUM([9]Sheet1!$Z$2:$AZ$2)</f>
-        <v>0.12182907823679352</v>
+        <v>2.4851876505180996E-2</v>
       </c>
       <c r="F12">
         <f>SUM([8]Sheet1!$BA$2:$BD$2)</f>
-        <v>-0.11456497216591616</v>
+        <v>-2.4053265394068303E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.12382423142517919</v>
+        <v>3.3312524653337783E-2</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>-0.1238242314251792</v>
+        <v>-3.3312524653337776E-2</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -3885,7 +2949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>C16</f>
         <v>9.2592592592723368E-3</v>
@@ -3895,7 +2959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18">
         <f t="shared" ref="C18:C23" si="2">D8*D18</f>
         <v>0</v>
@@ -3905,47 +2969,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>2.314814814815653E-3</v>
+        <v>2.3148148148157458E-3</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>4.6296296296313121E-3</v>
+        <v>4.6296296296320979E-3</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>6.9444444444470097E-3</v>
+        <v>6.9444444444499015E-3</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>9.2592592592630439E-3</v>
+        <v>9.2592592592694728E-3</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C23">
         <f t="shared" si="2"/>
         <v>9.2592592592723368E-3</v>
@@ -3955,7 +3019,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24">
         <f t="shared" ref="C24" si="4">D14*D24</f>
         <v>9.2592592592723368E-3</v>
@@ -3963,6 +3027,273 @@
       <c r="D24">
         <f t="shared" si="3"/>
         <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27">
+        <f>3600*24</f>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>H6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="B28">
+        <f>C6</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="C28">
+        <f>-1*H27</f>
+        <v>-86400</v>
+      </c>
+      <c r="D28">
+        <f>(A28+A29)/2*(C29-C28)</f>
+        <v>766.26000000107672</v>
+      </c>
+      <c r="E28">
+        <f>(B28+B29)/2*(C29-C28)</f>
+        <v>766.26000000107672</v>
+      </c>
+      <c r="F28">
+        <f>D28-E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" ref="A29:A36" si="5">H7</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B36" si="6">C7</f>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="C29">
+        <f>-0.01*H27</f>
+        <v>-864</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D36" si="7">(A29+A30)/2*(C30-C29)</f>
+        <v>3.870000000005438</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E36" si="8">(B29+B30)/2*(C30-C29)</f>
+        <v>3.870000000005438</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F36" si="9">D29-E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>6757.5205832244437</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>233.50187498997067</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="9"/>
+        <v>6524.0187082344728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="5"/>
+        <v>3.1284817514927982E-2</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>1.0810271990276421E-3</v>
+      </c>
+      <c r="C31">
+        <f>5*H27</f>
+        <v>432000</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>10627.815911127376</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>1035.7555144646724</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="9"/>
+        <v>9592.0603966627041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="5"/>
+        <v>5.0719934885746228E-2</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>6.9109134990022383E-3</v>
+      </c>
+      <c r="C32">
+        <f>8*H27</f>
+        <v>691200</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>17314.919962228352</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>2578.8058526282734</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="9"/>
+        <v>14736.114109600079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>4.9482148229001183E-2</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="6"/>
+        <v>8.0127314814854543E-3</v>
+      </c>
+      <c r="C33">
+        <f>12*H27</f>
+        <v>1036800</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>10730.18960555113</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>2134.9500000016342</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="9"/>
+        <v>8595.2396055494955</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>3.3312524653337783E-2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="6"/>
+        <v>8.4606481481567831E-3</v>
+      </c>
+      <c r="C34">
+        <f>15*H27</f>
+        <v>1296000</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>9130.5053251236804</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="8"/>
+        <v>3762.5000000045843</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="9"/>
+        <v>5368.0053251190966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="5"/>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="C35">
+        <f>20*H27</f>
+        <v>1728000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>7740.0000000108757</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="8"/>
+        <v>7740.0000000108757</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="5"/>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>8.9583333333459209E-3</v>
+      </c>
+      <c r="C36">
+        <f>30*H27</f>
+        <v>2592000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>-11610.000000016313</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>-11610.000000016313</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37">
+        <f>SUM(F28:F36)</f>
+        <v>44815.438145165848</v>
       </c>
     </row>
   </sheetData>
